--- a/data/trans_orig/P1416-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15179</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9035</v>
+        <v>9140</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24628</v>
+        <v>23926</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05559896246756896</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03309250554699635</v>
+        <v>0.03347843564662042</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09021087137430163</v>
+        <v>0.0876366116342714</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>13573</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7618</v>
+        <v>7404</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22465</v>
+        <v>22385</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05203692610349302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02920453132953274</v>
+        <v>0.02838600732446019</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08612607453132338</v>
+        <v>0.0858192593074605</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -786,19 +786,19 @@
         <v>28752</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19984</v>
+        <v>19108</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41476</v>
+        <v>39852</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05385855187943572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03743413207899551</v>
+        <v>0.03579387346452702</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07769254083408085</v>
+        <v>0.0746509769624749</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>257831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248382</v>
+        <v>249084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263975</v>
+        <v>263870</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.944401037532431</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9097891286256982</v>
+        <v>0.9123633883657286</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9669074944530029</v>
+        <v>0.9665215643533795</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -836,19 +836,19 @@
         <v>247265</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>238373</v>
+        <v>238453</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>253220</v>
+        <v>253434</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.947963073896507</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9138739254686766</v>
+        <v>0.9141807406925397</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9707954686704672</v>
+        <v>0.9716139926755398</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>488</v>
@@ -857,19 +857,19 @@
         <v>505096</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>492372</v>
+        <v>493996</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>513864</v>
+        <v>514740</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9461414481205642</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9223074591659194</v>
+        <v>0.9253490230375254</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9625658679210045</v>
+        <v>0.964206126535473</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>32431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21970</v>
+        <v>22346</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46350</v>
+        <v>46055</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06577338328239067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04455661571827788</v>
+        <v>0.04531980101652072</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09400194008475043</v>
+        <v>0.09340347859109474</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -982,19 +982,19 @@
         <v>52869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41329</v>
+        <v>40633</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68776</v>
+        <v>68975</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1049099743717533</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08201009241282511</v>
+        <v>0.08062838040350644</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1364731431307607</v>
+        <v>0.1368692989149088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -1003,19 +1003,19 @@
         <v>85300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69299</v>
+        <v>68227</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107876</v>
+        <v>106087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08555509860246406</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0695060599218085</v>
+        <v>0.06843058517820814</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1081976825213295</v>
+        <v>0.106403826162333</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>460644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>446725</v>
+        <v>447020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>471105</v>
+        <v>470729</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9342266167176093</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9059980599152496</v>
+        <v>0.9065965214089055</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9554433842817223</v>
+        <v>0.9546801989834794</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>447</v>
@@ -1053,19 +1053,19 @@
         <v>451080</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>435173</v>
+        <v>434974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>462620</v>
+        <v>463316</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8950900256282467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8635268568692398</v>
+        <v>0.8631307010850918</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9179899075871749</v>
+        <v>0.919371619596494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>883</v>
@@ -1074,19 +1074,19 @@
         <v>911724</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>889148</v>
+        <v>890937</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>927725</v>
+        <v>928797</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.914444901397536</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8918023174786704</v>
+        <v>0.8935961738376671</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9304939400781915</v>
+        <v>0.9315694148217919</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13770</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7281</v>
+        <v>7514</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22257</v>
+        <v>23317</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04318557359907952</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02283429307231392</v>
+        <v>0.02356541995855251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06980633291572798</v>
+        <v>0.07312888657848451</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1199,19 +1199,19 @@
         <v>23749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16200</v>
+        <v>15485</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34210</v>
+        <v>34253</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07080481818725319</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04829811926094811</v>
+        <v>0.04616793095503253</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1019932240180822</v>
+        <v>0.1021220700421041</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1220,19 +1220,19 @@
         <v>37518</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27317</v>
+        <v>28081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50792</v>
+        <v>50746</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05734486144050085</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04175206731152809</v>
+        <v>0.04292058821793801</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07763325422613003</v>
+        <v>0.0775630786450049</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>305076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296589</v>
+        <v>295529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311565</v>
+        <v>311332</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9568144264009205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9301936670842711</v>
+        <v>0.9268711134215155</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9771657069276853</v>
+        <v>0.9764345800414475</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -1270,19 +1270,19 @@
         <v>311663</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>301202</v>
+        <v>301159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>319212</v>
+        <v>319927</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9291951818127469</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8980067759819177</v>
+        <v>0.8978779299578958</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9517018807390519</v>
+        <v>0.9538320690449674</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>608</v>
@@ -1291,19 +1291,19 @@
         <v>616740</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>603466</v>
+        <v>603512</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>626941</v>
+        <v>626177</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9426551385594991</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.92236674577387</v>
+        <v>0.9224369213549952</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9582479326884721</v>
+        <v>0.9570794117820627</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>30749</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21565</v>
+        <v>20010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42742</v>
+        <v>42042</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08573023114445565</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06012584394080269</v>
+        <v>0.05578838094810063</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1191663862370585</v>
+        <v>0.1172171428081458</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1416,19 +1416,19 @@
         <v>42554</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31829</v>
+        <v>31593</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56924</v>
+        <v>57231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1145604441873032</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08568784300008965</v>
+        <v>0.08505176023503615</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1532468918528026</v>
+        <v>0.1540727543204826</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -1437,19 +1437,19 @@
         <v>73303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58834</v>
+        <v>58590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92226</v>
+        <v>91774</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1003977526552235</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08058027261545764</v>
+        <v>0.08024601465537891</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1263147869141441</v>
+        <v>0.12569662083668</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>327922</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>315929</v>
+        <v>316629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>337106</v>
+        <v>338661</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9142697688555443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8808336137629416</v>
+        <v>0.8827828571918542</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9398741560591972</v>
+        <v>0.9442116190518993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>342</v>
@@ -1487,19 +1487,19 @@
         <v>328902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314532</v>
+        <v>314225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339627</v>
+        <v>339863</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8854395558126968</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8467531081471973</v>
+        <v>0.8459272456795174</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9143121569999103</v>
+        <v>0.9149482397649638</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>674</v>
@@ -1508,19 +1508,19 @@
         <v>656824</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>637901</v>
+        <v>638353</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>671293</v>
+        <v>671537</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8996022473447765</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.873685213085856</v>
+        <v>0.87430337916332</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9194197273845426</v>
+        <v>0.9197539853446211</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>17408</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10714</v>
+        <v>10973</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28347</v>
+        <v>27150</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08562541170658133</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05269731987989156</v>
+        <v>0.05397409962352324</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1394299309001984</v>
+        <v>0.1335414845297565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1633,19 +1633,19 @@
         <v>26592</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17609</v>
+        <v>17809</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37231</v>
+        <v>37747</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1280493807380745</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.084794337269594</v>
+        <v>0.08575827396802525</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.179283250850253</v>
+        <v>0.1817643322819767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -1654,19 +1654,19 @@
         <v>44000</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32313</v>
+        <v>32692</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59547</v>
+        <v>58724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1070624294759308</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0786257995047665</v>
+        <v>0.07954732675913101</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1448913764899288</v>
+        <v>0.1428899915131512</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>185900</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174961</v>
+        <v>176158</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192594</v>
+        <v>192335</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9143745882934187</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8605700690998016</v>
+        <v>0.866458515470244</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9473026801201084</v>
+        <v>0.9460259003764767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>174</v>
@@ -1704,19 +1704,19 @@
         <v>181076</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170437</v>
+        <v>169921</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>190059</v>
+        <v>189859</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8719506192619255</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.820716749149747</v>
+        <v>0.8182356677180233</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.915205662730406</v>
+        <v>0.9142417260319747</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>363</v>
@@ -1725,19 +1725,19 @@
         <v>366976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>351429</v>
+        <v>352252</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>378663</v>
+        <v>378284</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8929375705240692</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.855108623510071</v>
+        <v>0.8571100084868489</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9213742004952334</v>
+        <v>0.9204526732408691</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>14969</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8473</v>
+        <v>8292</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23371</v>
+        <v>24742</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0552730662762632</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03128795952638945</v>
+        <v>0.03061996349649635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08629996210997876</v>
+        <v>0.09136401672025632</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1850,19 +1850,19 @@
         <v>25307</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17137</v>
+        <v>16717</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35519</v>
+        <v>36049</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09098640140907986</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06161235674198334</v>
+        <v>0.06010062288526975</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1277007981925752</v>
+        <v>0.1296044428227205</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1871,19 +1871,19 @@
         <v>40276</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29409</v>
+        <v>29435</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53426</v>
+        <v>55951</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07336826499901129</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05357208041097082</v>
+        <v>0.05361985955388512</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09732286721233517</v>
+        <v>0.1019219879940771</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>255842</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247440</v>
+        <v>246069</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262338</v>
+        <v>262519</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9447269337237368</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9137000378900213</v>
+        <v>0.9086359832797437</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9687120404736106</v>
+        <v>0.9693800365035037</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>245</v>
@@ -1921,19 +1921,19 @@
         <v>252837</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242625</v>
+        <v>242095</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>261007</v>
+        <v>261427</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9090135985909201</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8722992018074248</v>
+        <v>0.8703955571772795</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9383876432580167</v>
+        <v>0.9398993771147299</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>497</v>
@@ -1942,19 +1942,19 @@
         <v>508679</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>495529</v>
+        <v>493004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>519546</v>
+        <v>519520</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9266317350009887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9026771327876648</v>
+        <v>0.898078012005923</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9464279195890293</v>
+        <v>0.9463801404461148</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>26201</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17835</v>
+        <v>17076</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38622</v>
+        <v>37349</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0426021141837147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02899844565227645</v>
+        <v>0.02776512096724206</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06279659895575512</v>
+        <v>0.06072765982277373</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -2067,19 +2067,19 @@
         <v>40914</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30143</v>
+        <v>29164</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54051</v>
+        <v>54613</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06410608301852257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04722933916991032</v>
+        <v>0.04569542787657539</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08469093375293517</v>
+        <v>0.08557120289684111</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -2088,19 +2088,19 @@
         <v>67115</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51887</v>
+        <v>52849</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84845</v>
+        <v>86551</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.053553070219327</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04140179699208806</v>
+        <v>0.04216967683716166</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06770027667153011</v>
+        <v>0.06906151930583915</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>588826</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>576405</v>
+        <v>577678</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>597192</v>
+        <v>597951</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9573978858162853</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9372034010442447</v>
+        <v>0.9392723401772262</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9710015543477235</v>
+        <v>0.972234879032758</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>580</v>
@@ -2138,19 +2138,19 @@
         <v>597305</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>584168</v>
+        <v>583606</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>608076</v>
+        <v>609055</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9358939169814774</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9153090662470651</v>
+        <v>0.9144287971031589</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9527706608300897</v>
+        <v>0.9543045721234247</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1153</v>
@@ -2159,19 +2159,19 @@
         <v>1186131</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1168401</v>
+        <v>1166695</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1201359</v>
+        <v>1200397</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.946446929780673</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9322997233284697</v>
+        <v>0.9309384806941605</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9585982030079119</v>
+        <v>0.9578303231628378</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>68572</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53850</v>
+        <v>53706</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88651</v>
+        <v>86093</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09219199164403293</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07239951426991381</v>
+        <v>0.07220532629593758</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1191871816129469</v>
+        <v>0.1157479866307316</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>94</v>
@@ -2284,19 +2284,19 @@
         <v>98471</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>80186</v>
+        <v>79947</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>116319</v>
+        <v>118043</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1256795757478483</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1023423431246626</v>
+        <v>0.1020365219955583</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1484582089212635</v>
+        <v>0.1506585321039175</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>163</v>
@@ -2305,19 +2305,19 @@
         <v>167043</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>140487</v>
+        <v>144654</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>191978</v>
+        <v>193865</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1093711880785941</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09198339908040812</v>
+        <v>0.09471163905257123</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1256969026669382</v>
+        <v>0.1269327990201754</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>675223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>655144</v>
+        <v>657702</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>689945</v>
+        <v>690089</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9078080083559671</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8808128183870531</v>
+        <v>0.8842520133692684</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9276004857300861</v>
+        <v>0.9277946737040624</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>651</v>
@@ -2355,19 +2355,19 @@
         <v>685040</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>667192</v>
+        <v>665468</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>703325</v>
+        <v>703564</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8743204242521517</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8515417910787365</v>
+        <v>0.8493414678960824</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8976576568753374</v>
+        <v>0.8979634780044418</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1318</v>
@@ -2376,19 +2376,19 @@
         <v>1360263</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1335328</v>
+        <v>1333441</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1386819</v>
+        <v>1382652</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8906288119214059</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8743030973330617</v>
+        <v>0.8730672009798244</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9080166009195919</v>
+        <v>0.9052883609474286</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>219279</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>190111</v>
+        <v>193608</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>248076</v>
+        <v>249457</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06692390733899529</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05802178607102218</v>
+        <v>0.05908915541102524</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07571279204719857</v>
+        <v>0.07613413014860665</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>315</v>
@@ -2501,19 +2501,19 @@
         <v>324030</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>291517</v>
+        <v>289393</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>357710</v>
+        <v>359060</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09588951205477066</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08626816254183399</v>
+        <v>0.08563969490159655</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.105856501192828</v>
+        <v>0.1062559475636729</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>527</v>
@@ -2522,19 +2522,19 @@
         <v>543309</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>498791</v>
+        <v>501268</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>586741</v>
+        <v>591226</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08163008339646292</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07494144170394948</v>
+        <v>0.07531357902371294</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08815567872117933</v>
+        <v>0.08882946057112293</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3057264</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3028467</v>
+        <v>3027086</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3086432</v>
+        <v>3082935</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9330760926610047</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9242872079528015</v>
+        <v>0.9238658698513934</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.941978213928978</v>
+        <v>0.940910844588975</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2982</v>
@@ -2572,19 +2572,19 @@
         <v>3055167</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3021487</v>
+        <v>3020137</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3087680</v>
+        <v>3089804</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9041104879452293</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.894143498807172</v>
+        <v>0.8937440524363272</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9137318374581659</v>
+        <v>0.9143603050984039</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5984</v>
@@ -2593,19 +2593,19 @@
         <v>6112432</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6069000</v>
+        <v>6064515</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6156950</v>
+        <v>6154473</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9183699166035371</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9118443212788206</v>
+        <v>0.9111705394288772</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9250585582960505</v>
+        <v>0.9246864209762872</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>21470</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13404</v>
+        <v>14188</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31179</v>
+        <v>31569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07284282575350524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04547775421960461</v>
+        <v>0.04813674025954195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1057857862118426</v>
+        <v>0.1071101878644221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -2962,19 +2962,19 @@
         <v>32143</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22144</v>
+        <v>21778</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43373</v>
+        <v>44358</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1119018352366646</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07709121958525648</v>
+        <v>0.07581740986891018</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1509975727229419</v>
+        <v>0.1544249164168625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -2983,19 +2983,19 @@
         <v>53613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39675</v>
+        <v>40118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69796</v>
+        <v>67340</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09212088815675776</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06817161168166999</v>
+        <v>0.06893390636267216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1199285419746704</v>
+        <v>0.1157078620048508</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>273268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>263559</v>
+        <v>263169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281334</v>
+        <v>280550</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9271571742464948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8942142137881575</v>
+        <v>0.8928898121355787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9545222457803955</v>
+        <v>0.9518632597404584</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -3033,19 +3033,19 @@
         <v>255102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243872</v>
+        <v>242887</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>265101</v>
+        <v>265467</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8880981647633355</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.849002427277058</v>
+        <v>0.8455750835831375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9229087804147434</v>
+        <v>0.9241825901310898</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>488</v>
@@ -3054,19 +3054,19 @@
         <v>528370</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>512187</v>
+        <v>514643</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>542308</v>
+        <v>541865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9078791118432422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8800714580253298</v>
+        <v>0.8842921379951493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9318283883183303</v>
+        <v>0.9310660936373282</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>30227</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19983</v>
+        <v>20078</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44942</v>
+        <v>44783</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05979258532353449</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03952924328509275</v>
+        <v>0.03971746234750299</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08890217019809879</v>
+        <v>0.08858679969974037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -3179,19 +3179,19 @@
         <v>37361</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26533</v>
+        <v>27308</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51660</v>
+        <v>51324</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07133199337174563</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05065751624206382</v>
+        <v>0.05213813114381995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0986324329162583</v>
+        <v>0.09798961908760793</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -3200,19 +3200,19 @@
         <v>67588</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50851</v>
+        <v>50338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86974</v>
+        <v>87297</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06566452115164916</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04940389027296083</v>
+        <v>0.04890505138160862</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08449927618768567</v>
+        <v>0.08481276881268277</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>475300</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460585</v>
+        <v>460744</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>485544</v>
+        <v>485449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9402074146764655</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9110978298019012</v>
+        <v>0.9114132003002596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9604707567149073</v>
+        <v>0.9602825376524972</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -3250,19 +3250,19 @@
         <v>486404</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472105</v>
+        <v>472441</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497232</v>
+        <v>496457</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9286680066282543</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9013675670837415</v>
+        <v>0.9020103809123921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9493424837579361</v>
+        <v>0.94786186885618</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>893</v>
@@ -3271,19 +3271,19 @@
         <v>961704</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>942318</v>
+        <v>941995</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>978441</v>
+        <v>978954</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9343354788483509</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9155007238123144</v>
+        <v>0.9151872311873173</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9505961097270391</v>
+        <v>0.9510949486183914</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>12835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6955</v>
+        <v>6825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22637</v>
+        <v>22357</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03960751410926733</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02146444877110045</v>
+        <v>0.0210606819321054</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06985676883597895</v>
+        <v>0.06899310627468196</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3396,19 +3396,19 @@
         <v>26920</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18086</v>
+        <v>18033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37807</v>
+        <v>38831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.078939924990114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0530361285755967</v>
+        <v>0.05287930289718998</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1108646745880057</v>
+        <v>0.1138677061771287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -3417,19 +3417,19 @@
         <v>39755</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28124</v>
+        <v>28336</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52641</v>
+        <v>54268</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05977564614318132</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04228816430800005</v>
+        <v>0.04260582599390987</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07915109518541591</v>
+        <v>0.08159818240193853</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>311211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>301409</v>
+        <v>301689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317091</v>
+        <v>317221</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9603924858907327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9301432311640203</v>
+        <v>0.9310068937253181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9785355512288996</v>
+        <v>0.9789393180678946</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>292</v>
@@ -3467,19 +3467,19 @@
         <v>314100</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>303213</v>
+        <v>302189</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>322934</v>
+        <v>322987</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.921060075009886</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8891353254119941</v>
+        <v>0.886132293822872</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9469638714244031</v>
+        <v>0.9471206971028101</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>599</v>
@@ -3488,19 +3488,19 @@
         <v>625311</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>612425</v>
+        <v>610798</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>636942</v>
+        <v>636730</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9402243538568187</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9208489048145843</v>
+        <v>0.9184018175980615</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9577118356919999</v>
+        <v>0.9573941740060902</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>16555</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9344</v>
+        <v>10252</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26369</v>
+        <v>26589</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04426618928957848</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02498474135826173</v>
+        <v>0.02741233982998249</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07050912236425518</v>
+        <v>0.07109628873197897</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -3613,19 +3613,19 @@
         <v>29406</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19842</v>
+        <v>20123</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41076</v>
+        <v>42471</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07560319747252575</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05101358616969678</v>
+        <v>0.05173547599567249</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1056061592769719</v>
+        <v>0.1091928020874758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3634,19 +3634,19 @@
         <v>45961</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33590</v>
+        <v>34179</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60802</v>
+        <v>59777</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06024211216949289</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0440273751905219</v>
+        <v>0.04479978844536164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07969506070117859</v>
+        <v>0.07835203995181424</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>357427</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>347613</v>
+        <v>347393</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364638</v>
+        <v>363730</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9557338107104215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9294908776357448</v>
+        <v>0.9289037112680211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.975015258641738</v>
+        <v>0.9725876601700175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>343</v>
@@ -3684,19 +3684,19 @@
         <v>359545</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347875</v>
+        <v>346480</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369109</v>
+        <v>368828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9243968025274742</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8943938407230282</v>
+        <v>0.8908071979125243</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9489864138303032</v>
+        <v>0.9482645240043275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>671</v>
@@ -3705,19 +3705,19 @@
         <v>716972</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>702131</v>
+        <v>703156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>729343</v>
+        <v>728754</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9397578878305071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9203049392988214</v>
+        <v>0.9216479600481851</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.955972624809478</v>
+        <v>0.9552002115546383</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>16173</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9312</v>
+        <v>9931</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25216</v>
+        <v>25155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07606766069944404</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0437962153173481</v>
+        <v>0.04670929793999255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1185997217865801</v>
+        <v>0.118312266162133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -3830,19 +3830,19 @@
         <v>26131</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17381</v>
+        <v>17503</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36871</v>
+        <v>36998</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1189984456474151</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07915285499666905</v>
+        <v>0.07970733975513429</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.167909023677533</v>
+        <v>0.1684881480393896</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -3851,19 +3851,19 @@
         <v>42304</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31399</v>
+        <v>31082</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56340</v>
+        <v>56528</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09787936091595097</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07264660754829964</v>
+        <v>0.07191333798442262</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1303533750297138</v>
+        <v>0.1307886348845941</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>196445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187402</v>
+        <v>187463</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203306</v>
+        <v>202687</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.923932339300556</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8814002782134199</v>
+        <v>0.881687733837867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9562037846826519</v>
+        <v>0.9532907020600074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>186</v>
@@ -3901,19 +3901,19 @@
         <v>193460</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>182720</v>
+        <v>182593</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202210</v>
+        <v>202088</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8810015543525849</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.832090976322467</v>
+        <v>0.8315118519606104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9208471450033308</v>
+        <v>0.9202926602448657</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>366</v>
@@ -3922,19 +3922,19 @@
         <v>389905</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>375869</v>
+        <v>375681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400810</v>
+        <v>401127</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.902120639084049</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8696466249702864</v>
+        <v>0.869211365115406</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9273533924517005</v>
+        <v>0.9280866620155774</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>15908</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9170</v>
+        <v>9123</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25431</v>
+        <v>26223</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05806209665823291</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03346796876720955</v>
+        <v>0.03329703841643915</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09282088394129427</v>
+        <v>0.09571253161915619</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -4047,19 +4047,19 @@
         <v>16072</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9601</v>
+        <v>9694</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24958</v>
+        <v>27135</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0573930157941276</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03428449901755085</v>
+        <v>0.03461812680211893</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08912608265577883</v>
+        <v>0.09689901365071608</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -4068,19 +4068,19 @@
         <v>31980</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21917</v>
+        <v>21756</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44149</v>
+        <v>44984</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05772390293388006</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03956017600444061</v>
+        <v>0.03927046351184998</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07969006179303979</v>
+        <v>0.08119654772662747</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>258073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248550</v>
+        <v>247758</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264811</v>
+        <v>264858</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9419379033417671</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9071791160587059</v>
+        <v>0.9042874683808438</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9665320312327907</v>
+        <v>0.9667029615835608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -4118,19 +4118,19 @@
         <v>263959</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>255073</v>
+        <v>252896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270430</v>
+        <v>270337</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9426069842058724</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9108739173442203</v>
+        <v>0.9031009863492839</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.965715500982449</v>
+        <v>0.9653818731978812</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>501</v>
@@ -4139,19 +4139,19 @@
         <v>522032</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>509863</v>
+        <v>509028</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532095</v>
+        <v>532256</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9422760970661199</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9203099382069601</v>
+        <v>0.9188034522733726</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9604398239955592</v>
+        <v>0.9607295364881501</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>22793</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14511</v>
+        <v>14357</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34954</v>
+        <v>34999</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03438998457990936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02189360363742109</v>
+        <v>0.02166181890284413</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05273856206360065</v>
+        <v>0.05280564468249118</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -4264,19 +4264,19 @@
         <v>39187</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28383</v>
+        <v>27951</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53728</v>
+        <v>54479</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05647733277249271</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04090655141565235</v>
+        <v>0.0402837053666341</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07743493985296802</v>
+        <v>0.07851606779790787</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -4285,19 +4285,19 @@
         <v>61980</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49479</v>
+        <v>47863</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80620</v>
+        <v>81175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04568654133011668</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03647155472607486</v>
+        <v>0.03528076094744312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05942621297855124</v>
+        <v>0.05983537871395653</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>639995</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>627834</v>
+        <v>627789</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>648277</v>
+        <v>648431</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9656100154200906</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9472614379363993</v>
+        <v>0.9471943553175085</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9781063963625787</v>
+        <v>0.9783381810971558</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>600</v>
@@ -4335,19 +4335,19 @@
         <v>654666</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>640125</v>
+        <v>639374</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>665470</v>
+        <v>665902</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9435226672275073</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9225650601470319</v>
+        <v>0.921483932202092</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9590934485843476</v>
+        <v>0.9597162946333658</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1196</v>
@@ -4356,19 +4356,19 @@
         <v>1294661</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1276021</v>
+        <v>1275466</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1307162</v>
+        <v>1308778</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9543134586698833</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9405737870214491</v>
+        <v>0.9401646212860434</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9635284452739253</v>
+        <v>0.9647192390525569</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>39811</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29380</v>
+        <v>28606</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56203</v>
+        <v>53989</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05116538925479035</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03776033449589344</v>
+        <v>0.03676555716622928</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07223379517732462</v>
+        <v>0.06938752719793584</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -4481,19 +4481,19 @@
         <v>52971</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39906</v>
+        <v>39654</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68475</v>
+        <v>67879</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06439601077650056</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04851338009940397</v>
+        <v>0.04820714130687747</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08324426511765122</v>
+        <v>0.08251989114846535</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -4502,19 +4502,19 @@
         <v>92781</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74660</v>
+        <v>75587</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>111529</v>
+        <v>112731</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05796461881309055</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04664369478768617</v>
+        <v>0.04722230724778361</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06967697385551888</v>
+        <v>0.07042787949134025</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>738265</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>721873</v>
+        <v>724087</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>748696</v>
+        <v>749470</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9488346107452097</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9277662048226752</v>
+        <v>0.9306124728020642</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9622396655041064</v>
+        <v>0.9632344428337706</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>705</v>
@@ -4552,19 +4552,19 @@
         <v>769607</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>754103</v>
+        <v>754699</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>782672</v>
+        <v>782924</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9356039892234994</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9167557348823486</v>
+        <v>0.9174801088515347</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9514866199005959</v>
+        <v>0.9517928586931226</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1384</v>
@@ -4573,19 +4573,19 @@
         <v>1507873</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1489125</v>
+        <v>1487923</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1525994</v>
+        <v>1525067</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9420353811869094</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9303230261444811</v>
+        <v>0.9295721205086598</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9533563052123138</v>
+        <v>0.9527776927522166</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>175771</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>149054</v>
+        <v>151073</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>204003</v>
+        <v>202435</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05130862410513538</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0435098820527838</v>
+        <v>0.04409917184942139</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05954961786880995</v>
+        <v>0.05909200078441039</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>243</v>
@@ -4698,19 +4698,19 @@
         <v>260191</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>231632</v>
+        <v>229975</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>294350</v>
+        <v>293872</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07314830276374262</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06511952507811121</v>
+        <v>0.06465355223801444</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08275147388935107</v>
+        <v>0.08261728667356021</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>407</v>
@@ -4719,19 +4719,19 @@
         <v>435962</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>396700</v>
+        <v>391533</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>480485</v>
+        <v>479168</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06243375703205586</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05681103674328739</v>
+        <v>0.05607113253403907</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06880991841940987</v>
+        <v>0.06862126736390818</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3249986</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3221754</v>
+        <v>3223322</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3276703</v>
+        <v>3274684</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9486913758948646</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.94045038213119</v>
+        <v>0.9409079992155894</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9564901179472161</v>
+        <v>0.9559008281505785</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3054</v>
@@ -4769,19 +4769,19 @@
         <v>3296843</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3262684</v>
+        <v>3263162</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3325402</v>
+        <v>3327059</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9268516972362574</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9172485261106489</v>
+        <v>0.9173827133264398</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9348804749218887</v>
+        <v>0.9353464477619856</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6098</v>
@@ -4790,19 +4790,19 @@
         <v>6546828</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6502305</v>
+        <v>6503622</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6586090</v>
+        <v>6591257</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9375662429679441</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9311900815805899</v>
+        <v>0.9313787326360918</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9431889632567119</v>
+        <v>0.9439288674659609</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>18543</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10842</v>
+        <v>11314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29507</v>
+        <v>28996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06312382844937672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03690739844187876</v>
+        <v>0.03851263500311067</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1004454487821665</v>
+        <v>0.09870637730954553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -5159,19 +5159,19 @@
         <v>27188</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17331</v>
+        <v>18204</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39406</v>
+        <v>39657</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09417148491689015</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06003208525905732</v>
+        <v>0.06305441934598474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1364949134260485</v>
+        <v>0.1373633187915559</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -5180,19 +5180,19 @@
         <v>45731</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34115</v>
+        <v>33043</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61721</v>
+        <v>60822</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07851285086125485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05856987975131821</v>
+        <v>0.05672989540087425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1059661338606683</v>
+        <v>0.1044215571348066</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>275218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>264254</v>
+        <v>264765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>282919</v>
+        <v>282447</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9368761715506233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.899554551217834</v>
+        <v>0.9012936226904552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9630926015581216</v>
+        <v>0.9614873649968897</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>253</v>
@@ -5230,19 +5230,19 @@
         <v>261515</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249297</v>
+        <v>249046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271372</v>
+        <v>270499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9058285150831098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8635050865739503</v>
+        <v>0.8626366812084441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9399679147409425</v>
+        <v>0.9369455806540152</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>502</v>
@@ -5251,19 +5251,19 @@
         <v>536733</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>520743</v>
+        <v>521642</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>548349</v>
+        <v>549421</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9214871491387452</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8940338661393314</v>
+        <v>0.8955784428651936</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9414301202486817</v>
+        <v>0.9432701045991263</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>18437</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11382</v>
+        <v>11227</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29778</v>
+        <v>29192</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03668588435777412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02264737176136262</v>
+        <v>0.02233867080015023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05925143305801719</v>
+        <v>0.05808509902577744</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -5376,19 +5376,19 @@
         <v>38254</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27608</v>
+        <v>26814</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51260</v>
+        <v>51659</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0731312398507733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05277892782712437</v>
+        <v>0.05126077483780251</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09799639252683028</v>
+        <v>0.09875942969539489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -5397,19 +5397,19 @@
         <v>56691</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42362</v>
+        <v>42552</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73019</v>
+        <v>73225</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05527293484213106</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04130175782629673</v>
+        <v>0.04148754591233794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07119233235829292</v>
+        <v>0.07139328133094078</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>484138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>472797</v>
+        <v>473383</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>491193</v>
+        <v>491348</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9633141156422259</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9407485669419831</v>
+        <v>0.9419149009742227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9773526282386374</v>
+        <v>0.9776613291998498</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>447</v>
@@ -5447,19 +5447,19 @@
         <v>484830</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>471824</v>
+        <v>471425</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>495476</v>
+        <v>496270</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9268687601492267</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9020036074731693</v>
+        <v>0.9012405703046051</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9472210721728755</v>
+        <v>0.9487392251621974</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>905</v>
@@ -5468,19 +5468,19 @@
         <v>968968</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>952640</v>
+        <v>952434</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>983297</v>
+        <v>983107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.944727065157869</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9288076676417072</v>
+        <v>0.9286067186690593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9586982421737034</v>
+        <v>0.9585124540876624</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>13971</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8245</v>
+        <v>8371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21988</v>
+        <v>23020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04385714829783895</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02588146058368526</v>
+        <v>0.02627803245988691</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06902121723354737</v>
+        <v>0.07226034063440662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5593,19 +5593,19 @@
         <v>13799</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8512</v>
+        <v>8274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22115</v>
+        <v>22072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04103071050241756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02530933500336421</v>
+        <v>0.02460125032962339</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06575694568756929</v>
+        <v>0.06562914686328615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -5614,19 +5614,19 @@
         <v>27770</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19340</v>
+        <v>19581</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40097</v>
+        <v>39852</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04240563781679214</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02953255070560966</v>
+        <v>0.02990021925425786</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06122893445771935</v>
+        <v>0.06085380203344639</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>304594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296577</v>
+        <v>295545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310320</v>
+        <v>310194</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9561428517021611</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9309787827664527</v>
+        <v>0.9277396593655938</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9741185394163148</v>
+        <v>0.9737219675401133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -5664,19 +5664,19 @@
         <v>322510</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>314194</v>
+        <v>314237</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>327797</v>
+        <v>328035</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9589692894975824</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9342430543124307</v>
+        <v>0.9343708531367139</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9746906649966358</v>
+        <v>0.9753987496703767</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>637</v>
@@ -5685,19 +5685,19 @@
         <v>627104</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>614777</v>
+        <v>615022</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>635534</v>
+        <v>635293</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9575943621832078</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9387710655422804</v>
+        <v>0.9391461979665534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9704674492943903</v>
+        <v>0.9700997807457421</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>19575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11830</v>
+        <v>11574</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30500</v>
+        <v>29460</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05290997787568136</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03197678725526953</v>
+        <v>0.03128498504827745</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08244020530198021</v>
+        <v>0.07962957182005199</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -5810,19 +5810,19 @@
         <v>34897</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24249</v>
+        <v>24671</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46861</v>
+        <v>47304</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09010667289921852</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06261310343264107</v>
+        <v>0.0637037028884893</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1209989560012593</v>
+        <v>0.122142189310933</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -5831,19 +5831,19 @@
         <v>54472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40125</v>
+        <v>40996</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70581</v>
+        <v>70796</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0719336883543204</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0529876955582548</v>
+        <v>0.05413811015177318</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09320772105014884</v>
+        <v>0.09349133927397658</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>350389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339464</v>
+        <v>340504</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>358134</v>
+        <v>358390</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9470900221243186</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9175597946980198</v>
+        <v>0.9203704281799472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9680232127447308</v>
+        <v>0.9687150149517224</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>325</v>
@@ -5881,19 +5881,19 @@
         <v>352386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>340422</v>
+        <v>339979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363034</v>
+        <v>362612</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9098933271007815</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8790010439987407</v>
+        <v>0.8778578106890671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.937386896567359</v>
+        <v>0.9362962971115109</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>662</v>
@@ -5902,19 +5902,19 @@
         <v>702775</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>686666</v>
+        <v>686451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>717122</v>
+        <v>716251</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9280663116456795</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9067922789498511</v>
+        <v>0.9065086607260239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.947012304441745</v>
+        <v>0.9458618898482274</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>11646</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6523</v>
+        <v>6181</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20965</v>
+        <v>19090</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05513615245873501</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03088131470587336</v>
+        <v>0.02926434542402443</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09925770629885097</v>
+        <v>0.09037787538223362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -6027,19 +6027,19 @@
         <v>18594</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12041</v>
+        <v>11889</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28843</v>
+        <v>27770</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08506640721977125</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05508503363315769</v>
+        <v>0.05438924364964698</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1319524750131816</v>
+        <v>0.1270423680671388</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -6048,19 +6048,19 @@
         <v>30240</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20819</v>
+        <v>20121</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42157</v>
+        <v>41371</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0703577505303271</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04843831483305687</v>
+        <v>0.04681455279490619</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0980830185885137</v>
+        <v>0.09625383077990556</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>199575</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190256</v>
+        <v>192131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204698</v>
+        <v>205040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.944863847541265</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9007422937011493</v>
+        <v>0.9096221246177664</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9691186852941267</v>
+        <v>0.9707356545759754</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -6098,19 +6098,19 @@
         <v>199993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189744</v>
+        <v>190817</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206546</v>
+        <v>206698</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9149335927802288</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8680475249868183</v>
+        <v>0.8729576319328614</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9449149663668422</v>
+        <v>0.9456107563503531</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>404</v>
@@ -6119,19 +6119,19 @@
         <v>399568</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>387651</v>
+        <v>388437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>408989</v>
+        <v>409687</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9296422494696729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9019169814114862</v>
+        <v>0.9037461692200945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9515616851669431</v>
+        <v>0.9531854472050939</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>16478</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10383</v>
+        <v>9659</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25228</v>
+        <v>24994</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0626247100096472</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03946122915562593</v>
+        <v>0.03670992740290489</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09587849388624758</v>
+        <v>0.09498896858870497</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -6244,19 +6244,19 @@
         <v>19510</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12289</v>
+        <v>12088</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30947</v>
+        <v>29641</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07143360430965723</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04499701106511859</v>
+        <v>0.04425891343123347</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1133130377393229</v>
+        <v>0.1085296925556383</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -6265,19 +6265,19 @@
         <v>35988</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26090</v>
+        <v>26216</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49685</v>
+        <v>50008</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06711122751177143</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04865313880443019</v>
+        <v>0.04888944714149679</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09265498848170806</v>
+        <v>0.0932573719126463</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>246645</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237895</v>
+        <v>238129</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252740</v>
+        <v>253464</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9373752899903528</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9041215061137524</v>
+        <v>0.905011031411295</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9605387708443742</v>
+        <v>0.9632900725970952</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>245</v>
@@ -6315,19 +6315,19 @@
         <v>253605</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242168</v>
+        <v>243474</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260826</v>
+        <v>261027</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9285663956903428</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8866869622606771</v>
+        <v>0.8914703074443617</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9550029889348813</v>
+        <v>0.9557410865687664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>487</v>
@@ -6336,19 +6336,19 @@
         <v>500250</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>486553</v>
+        <v>486230</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>510148</v>
+        <v>510022</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9328887724882285</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9073450115182919</v>
+        <v>0.906742628087354</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9513468611955699</v>
+        <v>0.9511105528585032</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>19449</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11637</v>
+        <v>11801</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31082</v>
+        <v>30791</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02962225951128965</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01772398557718069</v>
+        <v>0.01797413620000051</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04734087376209385</v>
+        <v>0.04689791056153424</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -6461,19 +6461,19 @@
         <v>52772</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40753</v>
+        <v>39864</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69848</v>
+        <v>68945</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07633793602884634</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0589516430023026</v>
+        <v>0.05766584933853173</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1010400854417053</v>
+        <v>0.09973376094578744</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -6482,19 +6482,19 @@
         <v>72221</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56087</v>
+        <v>57500</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92035</v>
+        <v>91453</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0535820614505181</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04161247043695043</v>
+        <v>0.04266082839870087</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06828248947486866</v>
+        <v>0.0678509368488683</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>637109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>625476</v>
+        <v>625767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>644921</v>
+        <v>644757</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9703777404887104</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9526591262379061</v>
+        <v>0.9531020894384657</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9822760144228193</v>
+        <v>0.9820258637999995</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>597</v>
@@ -6532,19 +6532,19 @@
         <v>638522</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>621446</v>
+        <v>622349</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>650541</v>
+        <v>651430</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9236620639711537</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8989599145582947</v>
+        <v>0.9002662390542127</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9410483569976974</v>
+        <v>0.9423341506614683</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1160</v>
@@ -6553,19 +6553,19 @@
         <v>1275631</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1255817</v>
+        <v>1256399</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1291765</v>
+        <v>1290352</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9464179385494819</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9317175105251313</v>
+        <v>0.9321490631511314</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9583875295630495</v>
+        <v>0.957339171601299</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>49369</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37910</v>
+        <v>36389</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65547</v>
+        <v>63463</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0634093806148565</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0486915620681683</v>
+        <v>0.04673730980952361</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08418706098790395</v>
+        <v>0.0815111629074306</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>71</v>
@@ -6678,19 +6678,19 @@
         <v>76558</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57903</v>
+        <v>61595</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93001</v>
+        <v>95380</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0926662555783485</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0700861609721382</v>
+        <v>0.07455546748718846</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1125694542148773</v>
+        <v>0.1154482272055381</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -6699,19 +6699,19 @@
         <v>125927</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>103960</v>
+        <v>105680</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>149145</v>
+        <v>148507</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07847158014410135</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06478240465650091</v>
+        <v>0.06585455429687506</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09293983237876227</v>
+        <v>0.09254197536469586</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>729214</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>713036</v>
+        <v>715120</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>740673</v>
+        <v>742194</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9365906193851435</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9158129390120959</v>
+        <v>0.9184888370925693</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9513084379318317</v>
+        <v>0.9532626901904764</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>684</v>
@@ -6749,19 +6749,19 @@
         <v>749609</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>733166</v>
+        <v>730787</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>768264</v>
+        <v>764572</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9073337444216515</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8874305457851227</v>
+        <v>0.8845517727944626</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9299138390278617</v>
+        <v>0.9254445325128116</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1386</v>
@@ -6770,19 +6770,19 @@
         <v>1478823</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1455605</v>
+        <v>1456243</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1500790</v>
+        <v>1499070</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9215284198558986</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.907060167621238</v>
+        <v>0.9074580246353044</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9352175953434991</v>
+        <v>0.934145445703125</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>167469</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>141703</v>
+        <v>142105</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>195430</v>
+        <v>193487</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04933756809564291</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04174680470936292</v>
+        <v>0.04186507758721519</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05757502808004282</v>
+        <v>0.05700254670070513</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>266</v>
@@ -6895,19 +6895,19 @@
         <v>281571</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>250315</v>
+        <v>249461</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>314483</v>
+        <v>316563</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07943788241922732</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07061988369797076</v>
+        <v>0.07037897366956115</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08872308701189194</v>
+        <v>0.08930994241980432</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>426</v>
@@ -6916,19 +6916,19 @@
         <v>449040</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>409668</v>
+        <v>408510</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>496767</v>
+        <v>490707</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06471348445840792</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05903944033177514</v>
+        <v>0.0588724850318107</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0715917241276039</v>
+        <v>0.0707184017167687</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3226881</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3198920</v>
+        <v>3200863</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3252647</v>
+        <v>3252245</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9506624319043571</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9424249719199572</v>
+        <v>0.9429974532992949</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9582531952906371</v>
+        <v>0.9581349224127848</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3072</v>
@@ -6966,19 +6966,19 @@
         <v>3262971</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3230059</v>
+        <v>3227979</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3294227</v>
+        <v>3295081</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9205621175807727</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9112769129881079</v>
+        <v>0.9106900575801958</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9293801163020291</v>
+        <v>0.929621026330439</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6143</v>
@@ -6987,19 +6987,19 @@
         <v>6489852</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6442125</v>
+        <v>6448185</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6529224</v>
+        <v>6530382</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.935286515541592</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.928408275872396</v>
+        <v>0.9292815982832313</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9409605596682242</v>
+        <v>0.9411275149681891</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>33125</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22288</v>
+        <v>22298</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48984</v>
+        <v>49225</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1038899222100283</v>
+        <v>0.1038899222100284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06990201028405697</v>
+        <v>0.06993314534093599</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1536298287409708</v>
+        <v>0.1543845828513653</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -7356,19 +7356,19 @@
         <v>18695</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13116</v>
+        <v>11587</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28174</v>
+        <v>27567</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05915000812441998</v>
+        <v>0.05915000812441997</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04149700555801242</v>
+        <v>0.03666065755052754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08914154275192193</v>
+        <v>0.08722049493037543</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -7377,19 +7377,19 @@
         <v>51820</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38383</v>
+        <v>37922</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69936</v>
+        <v>71349</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08161807771074568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0604545323147913</v>
+        <v>0.05972774439558726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1101518017668469</v>
+        <v>0.1123774135349172</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>285720</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269861</v>
+        <v>269620</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296557</v>
+        <v>296547</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8961100777899716</v>
+        <v>0.8961100777899719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8463701712590291</v>
+        <v>0.8456154171486348</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9300979897159434</v>
+        <v>0.9300668546590642</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>508</v>
@@ -7427,19 +7427,19 @@
         <v>297366</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287887</v>
+        <v>288494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302945</v>
+        <v>304474</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.94084999187558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9108584572480779</v>
+        <v>0.9127795050696249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9585029944419875</v>
+        <v>0.9633393424494726</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>813</v>
@@ -7448,19 +7448,19 @@
         <v>583086</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>564970</v>
+        <v>563557</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>596523</v>
+        <v>596984</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9183819222892544</v>
+        <v>0.9183819222892542</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8898481982331531</v>
+        <v>0.8876225864650825</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9395454676852092</v>
+        <v>0.9402722556044127</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>64774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48665</v>
+        <v>48910</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87824</v>
+        <v>90719</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1222942999073269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09187885472049077</v>
+        <v>0.09234208191947312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1658116368735556</v>
+        <v>0.1712786833873907</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -7573,19 +7573,19 @@
         <v>68251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56039</v>
+        <v>55210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84108</v>
+        <v>82358</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1261178674340507</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1035523881753589</v>
+        <v>0.1020195411749383</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1554192444714936</v>
+        <v>0.152186274157075</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -7594,19 +7594,19 @@
         <v>133025</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110957</v>
+        <v>111935</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>156685</v>
+        <v>161221</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1242266301992843</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1036176161347432</v>
+        <v>0.1045316889136577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1463216896684929</v>
+        <v>0.1505576201369643</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>464886</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>441836</v>
+        <v>438941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>480995</v>
+        <v>480750</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8777057000926732</v>
+        <v>0.8777057000926731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8341883631264441</v>
+        <v>0.8287213166126091</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.908121145279509</v>
+        <v>0.9076579180805268</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>621</v>
@@ -7644,19 +7644,19 @@
         <v>472917</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>457060</v>
+        <v>458810</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485129</v>
+        <v>485958</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8738821325659492</v>
+        <v>0.8738821325659493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8445807555285068</v>
+        <v>0.847813725842925</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8964476118246412</v>
+        <v>0.8979804588250617</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>960</v>
@@ -7665,19 +7665,19 @@
         <v>937803</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>914143</v>
+        <v>909607</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>959871</v>
+        <v>958893</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8757733698007159</v>
+        <v>0.8757733698007157</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.853678310331507</v>
+        <v>0.8494423798630357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8963823838652568</v>
+        <v>0.8954683110863424</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>28856</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19788</v>
+        <v>19822</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40365</v>
+        <v>41854</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09131896466539881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06262090576061517</v>
+        <v>0.06273074230002958</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1277411049745947</v>
+        <v>0.1324535547975865</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -7790,19 +7790,19 @@
         <v>36414</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27568</v>
+        <v>27625</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46458</v>
+        <v>47080</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1021775639760464</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07735584954921719</v>
+        <v>0.0775152842455662</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.130361686204442</v>
+        <v>0.1321056351842612</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -7811,19 +7811,19 @@
         <v>65270</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52434</v>
+        <v>51528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80839</v>
+        <v>80783</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09707438910482417</v>
+        <v>0.09707438910482415</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0779839882823926</v>
+        <v>0.07663615568808976</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1202290461524474</v>
+        <v>0.1201459499814204</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>287137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>275628</v>
+        <v>274139</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>296205</v>
+        <v>296171</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9086810353346011</v>
+        <v>0.9086810353346013</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8722588950254054</v>
+        <v>0.8675464452024136</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9373790942393848</v>
+        <v>0.9372692576999705</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>482</v>
@@ -7861,19 +7861,19 @@
         <v>319967</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>309923</v>
+        <v>309301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328813</v>
+        <v>328756</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8978224360239537</v>
+        <v>0.8978224360239535</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.869638313795558</v>
+        <v>0.8678943648157398</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9226441504507827</v>
+        <v>0.9224847157544339</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>812</v>
@@ -7882,19 +7882,19 @@
         <v>607105</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>591536</v>
+        <v>591592</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>619941</v>
+        <v>620847</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9029256108951761</v>
+        <v>0.902925610895176</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8797709538475526</v>
+        <v>0.8798540500185797</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9220160117176074</v>
+        <v>0.9233638443119104</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>17897</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9324</v>
+        <v>8657</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34076</v>
+        <v>36432</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04796357797307717</v>
+        <v>0.04796357797307716</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02498676474865525</v>
+        <v>0.02319948047141937</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09132090895417068</v>
+        <v>0.09763391296781364</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -8007,19 +8007,19 @@
         <v>23685</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15605</v>
+        <v>16004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33760</v>
+        <v>34382</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05613159618926027</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03698138357742195</v>
+        <v>0.03792703842751394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08000625568537524</v>
+        <v>0.0814805310832331</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -8028,19 +8028,19 @@
         <v>41583</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29568</v>
+        <v>29840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61445</v>
+        <v>60041</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05229832795066449</v>
+        <v>0.05229832795066448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03718708043640914</v>
+        <v>0.03752944496386814</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07727903251323018</v>
+        <v>0.07551352901262098</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>355248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339069</v>
+        <v>336713</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>363821</v>
+        <v>364488</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9520364220269228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9086790910458283</v>
+        <v>0.9023660870321863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9750132352513446</v>
+        <v>0.9768005195285809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>569</v>
@@ -8078,19 +8078,19 @@
         <v>398276</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388201</v>
+        <v>387579</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>406356</v>
+        <v>405957</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9438684038107398</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9199937443146249</v>
+        <v>0.9185194689167669</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9630186164225782</v>
+        <v>0.9620729615724861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>848</v>
@@ -8099,19 +8099,19 @@
         <v>753524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>733662</v>
+        <v>735066</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>765539</v>
+        <v>765267</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9477016720493355</v>
+        <v>0.9477016720493354</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9227209674867698</v>
+        <v>0.9244864709873789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9628129195635908</v>
+        <v>0.962470555036132</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>19777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13632</v>
+        <v>13428</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27850</v>
+        <v>28442</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09616158084284086</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06628366090085927</v>
+        <v>0.06529177606431071</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1354161119541158</v>
+        <v>0.1382925715799979</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -8224,19 +8224,19 @@
         <v>26107</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19622</v>
+        <v>20045</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33666</v>
+        <v>33738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1154501742111635</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08677001414608707</v>
+        <v>0.08864007918657857</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1488753181147293</v>
+        <v>0.1491954285938464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -8245,19 +8245,19 @@
         <v>45884</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35983</v>
+        <v>37118</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57164</v>
+        <v>57019</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1062630968974576</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08333320757778824</v>
+        <v>0.08596135178896236</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1323847819705535</v>
+        <v>0.1320489914903442</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>185888</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>177815</v>
+        <v>177223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192033</v>
+        <v>192237</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.903838419157159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8645838880458842</v>
+        <v>0.8617074284200021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9337163390991405</v>
+        <v>0.9347082239356893</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>434</v>
@@ -8295,19 +8295,19 @@
         <v>200029</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192470</v>
+        <v>192398</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206514</v>
+        <v>206091</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8845498257888365</v>
+        <v>0.8845498257888366</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8511246818852707</v>
+        <v>0.8508045714061533</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.913229985853913</v>
+        <v>0.9113599208134214</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>688</v>
@@ -8316,19 +8316,19 @@
         <v>385916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>374636</v>
+        <v>374781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>395817</v>
+        <v>394682</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8937369031025425</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8676152180294465</v>
+        <v>0.8679510085096548</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9166667924222117</v>
+        <v>0.9140386482110375</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>37589</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28269</v>
+        <v>28140</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48354</v>
+        <v>48906</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1392728478997263</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.104739710428206</v>
+        <v>0.1042616150657649</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.179156711289345</v>
+        <v>0.1812050273360353</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -8441,19 +8441,19 @@
         <v>47123</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38423</v>
+        <v>39090</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57731</v>
+        <v>57812</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1791076204314196</v>
+        <v>0.1791076204314197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1460410279745636</v>
+        <v>0.1485769474802466</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2194272461193122</v>
+        <v>0.2197332049679615</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>128</v>
@@ -8462,19 +8462,19 @@
         <v>84712</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70971</v>
+        <v>70543</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100135</v>
+        <v>100130</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1589362781315102</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1331545431788843</v>
+        <v>0.1323526758048312</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1878721394685217</v>
+        <v>0.1878620953149391</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>232306</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221541</v>
+        <v>220989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241626</v>
+        <v>241755</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.860727152100274</v>
+        <v>0.8607271521002736</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.820843288710655</v>
+        <v>0.8187949726639649</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8952602895717939</v>
+        <v>0.8957383849342352</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>377</v>
@@ -8512,19 +8512,19 @@
         <v>215976</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>205368</v>
+        <v>205287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>224676</v>
+        <v>224009</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8208923795685803</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7805727538806877</v>
+        <v>0.7802667950320386</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8539589720254362</v>
+        <v>0.8514230525197534</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>701</v>
@@ -8533,19 +8533,19 @@
         <v>448283</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>432860</v>
+        <v>432865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>462024</v>
+        <v>462452</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8410637218684898</v>
+        <v>0.8410637218684899</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8121278605314782</v>
+        <v>0.8121379046850606</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8668454568211157</v>
+        <v>0.8676473241951688</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>87480</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69816</v>
+        <v>67458</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108726</v>
+        <v>106230</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1222372531911037</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0975545210004289</v>
+        <v>0.09425943822648401</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1519241077084615</v>
+        <v>0.1484361365274615</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -8658,19 +8658,19 @@
         <v>133747</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114269</v>
+        <v>115766</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>154212</v>
+        <v>154905</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1733900092928465</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1481378722864139</v>
+        <v>0.1500790797651584</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1999202915933692</v>
+        <v>0.2008187463864127</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>237</v>
@@ -8679,19 +8679,19 @@
         <v>221227</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>193429</v>
+        <v>194280</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>251856</v>
+        <v>251818</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1487718214390091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1300779070376327</v>
+        <v>0.1306498233793888</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1693689208565556</v>
+        <v>0.1693432491080404</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>628178</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>606932</v>
+        <v>609428</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>645842</v>
+        <v>648200</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8777627468088964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8480758922915387</v>
+        <v>0.8515638634725385</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9024454789995712</v>
+        <v>0.9057405617735158</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>796</v>
@@ -8729,19 +8729,19 @@
         <v>637620</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>617155</v>
+        <v>616462</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>657098</v>
+        <v>655601</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8266099907071534</v>
+        <v>0.8266099907071535</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8000797084066305</v>
+        <v>0.7991812536135873</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.851862127713586</v>
+        <v>0.8499209202348416</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1317</v>
@@ -8750,19 +8750,19 @@
         <v>1265798</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1235169</v>
+        <v>1235207</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1293596</v>
+        <v>1292745</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8512281785609909</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8306310791434447</v>
+        <v>0.8306567508919597</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8699220929623676</v>
+        <v>0.8693501766206113</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>53430</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39749</v>
+        <v>38106</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71311</v>
+        <v>70424</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06694913174882641</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04980607784753934</v>
+        <v>0.04774758912366935</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08935357385096343</v>
+        <v>0.08824324566530112</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>121</v>
@@ -8875,19 +8875,19 @@
         <v>91158</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76762</v>
+        <v>76526</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>107949</v>
+        <v>107725</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1109855540167675</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0934582579355855</v>
+        <v>0.09317109021253156</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1314285080313455</v>
+        <v>0.1311560516221914</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>167</v>
@@ -8896,19 +8896,19 @@
         <v>144588</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>123827</v>
+        <v>123904</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>167723</v>
+        <v>167895</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08928384700447463</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07646371525686999</v>
+        <v>0.07651151736415877</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1035696606382044</v>
+        <v>0.1036755902259559</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>744642</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>726761</v>
+        <v>727648</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>758323</v>
+        <v>759966</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9330508682511736</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9106464261490366</v>
+        <v>0.9117567543346988</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9501939221524607</v>
+        <v>0.9522524108763306</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>931</v>
@@ -8946,19 +8946,19 @@
         <v>730193</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>713402</v>
+        <v>713626</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>744589</v>
+        <v>744825</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8890144459832324</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8685714919686545</v>
+        <v>0.8688439483778085</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9065417420644144</v>
+        <v>0.9068289097874683</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1647</v>
@@ -8967,19 +8967,19 @@
         <v>1474834</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1451699</v>
+        <v>1451527</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1495595</v>
+        <v>1495518</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9107161529955253</v>
+        <v>0.9107161529955254</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8964303393617956</v>
+        <v>0.896324409774044</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9235362847431301</v>
+        <v>0.9234884826358412</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>342929</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>306944</v>
+        <v>306091</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>385023</v>
+        <v>386087</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09723153214343004</v>
+        <v>0.09723153214343003</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08702862900726986</v>
+        <v>0.08678672178550764</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.109166393051504</v>
+        <v>0.1094681089141488</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>625</v>
@@ -9092,19 +9092,19 @@
         <v>445182</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>410388</v>
+        <v>411319</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>482479</v>
+        <v>481273</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1197521200557106</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1103929114332298</v>
+        <v>0.1106432249438359</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1297848794768537</v>
+        <v>0.1294605370500311</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>927</v>
@@ -9113,19 +9113,19 @@
         <v>788111</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>732948</v>
+        <v>736770</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>841457</v>
+        <v>840390</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1087880682930356</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.101173605771423</v>
+        <v>0.1017011589876645</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1161517756946403</v>
+        <v>0.1160045453312432</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3184004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3141910</v>
+        <v>3140846</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3219989</v>
+        <v>3220842</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9027684678565699</v>
+        <v>0.9027684678565697</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.890833606948496</v>
+        <v>0.8905318910858507</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.91297137099273</v>
+        <v>0.9132132782144922</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4718</v>
@@ -9163,19 +9163,19 @@
         <v>3272343</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3235046</v>
+        <v>3236252</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3307137</v>
+        <v>3306206</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8802478799442895</v>
+        <v>0.8802478799442892</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8702151205231463</v>
+        <v>0.8705394629499689</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8896070885667704</v>
+        <v>0.8893567750561644</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7786</v>
@@ -9184,19 +9184,19 @@
         <v>6456347</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6403001</v>
+        <v>6404068</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6511510</v>
+        <v>6507688</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8912119317069643</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8838482243053596</v>
+        <v>0.8839954546687567</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8988263942285767</v>
+        <v>0.8982988410123356</v>
       </c>
     </row>
     <row r="30">
